--- a/src/main/resources/static/js/waterRecordExcel.xlsx
+++ b/src/main/resources/static/js/waterRecordExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>顾客编码(不可重复！)（必填）</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>19.4</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>2018-08-09</t>
@@ -110,77 +107,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,6 +131,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,9 +183,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,6 +204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -223,26 +220,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,6 +235,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,43 +260,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,139 +416,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,37 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,16 +494,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,8 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,9 +534,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1072,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1139,53 +1136,53 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
